--- a/data/user-study/survey-results.xlsx
+++ b/data/user-study/survey-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lewis\Documents\University\msciProject\tactihelm-l5project\data\user-study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A735B8E-9432-42E0-AA55-82C9ED540C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87ADA1D6-D743-4317-91D0-99D3EE5D5E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -910,8 +910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AM4" sqref="AM4"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AN3" sqref="AN3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1357,7 +1357,7 @@
         <v>119</v>
       </c>
       <c r="AN3" s="2" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="AO3" s="2" t="s">
         <v>119</v>
@@ -1564,7 +1564,7 @@
   <autoFilter ref="A2:BA5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C4 D1:D4 G1:G4 I1:I4 J1:J4 K1:K4 L1:L4 M1:M4 P1:P4 Q1:Q4 R1:R4 S1:S4 T1:T4 U1:U4 V1:V4 W1:W4 X1:X4 Y1:Y4 Z1:Z4 AA1:AA4 AB1:AB4 AC1:AC4 AD1:AD4 AE1:AE4 AF1:AF4 AM1:AM4 AN1:AN4 AO1:AO4 AP1:AP4 AQ1:AQ4 AR1:AR4 AS1:AS4 AT1:AT4 AU1:AU4 AV1:AV4 AW1:AW4 AX1:AX4 AY1:AY4 AZ1:AZ4 BA1:BA4" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C4 D1:D4 G1:G4 I1:I4 J1:J4 K1:K4 L1:L4 M1:M4 P1:P4 Q1:Q4 R1:R4 S1:S4 T1:T4 U1:U4 V1:V4 W1:W4 X1:X4 Y1:Y4 Z1:Z4 AA1:AA4 AB1:AB4 AC1:AC4 AD1:AD4 AE1:AE4 AF1:AF4 AM1:AM4 AN1:AN2 AO1:AO4 AP1:AP4 AQ1:AQ4 AR1:AR4 AS1:AS4 AT1:AT4 AU1:AU4 AV1:AV4 AW1:AW4 AX1:AX4 AY1:AY4 AZ1:AZ4 BA1:BA4 AN4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>